--- a/Excel-Practice/03-Date-and-Time-Formulas/Book1.xlsx
+++ b/Excel-Practice/03-Date-and-Time-Formulas/Book1.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studying-02\Books\24-Excel-May-02-2023\Excel-Tutorials\Excel-Practice\03-Date-and-Time-Formulas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5977184-B711-4672-AD11-00BD74A42D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9562AE7-1F47-4098-8DE2-30E3423A820D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{99AE807E-1B1D-4339-AA4A-8875D2DBB5BD}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{99AE807E-1B1D-4339-AA4A-8875D2DBB5BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Date Functions" sheetId="1" r:id="rId1"/>
+    <sheet name="Time Functions" sheetId="3" r:id="rId2"/>
+    <sheet name="Example" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="Days_Off">'Date Functions'!$B$133:$B$143</definedName>
+    <definedName name="Days_Off">Example!$B$3:$B$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -61,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="201">
   <si>
     <t>Month</t>
   </si>
@@ -340,18 +342,343 @@
   </si>
   <si>
     <t>Word Days minus week day holidays</t>
+  </si>
+  <si>
+    <t>WEEKNUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Example: </t>
+  </si>
+  <si>
+    <t>Click here</t>
+  </si>
+  <si>
+    <t>The WEEKNUM function returns a number indicating where the week in a specified</t>
+  </si>
+  <si>
+    <t>date falls within the year. This function takes the following arguments:</t>
+  </si>
+  <si>
+    <t>WEEKNUM(serial_number, [return_type])</t>
+  </si>
+  <si>
+    <t>In this function, the serial_number argument is the date whose week in the year</t>
+  </si>
+  <si>
+    <t>you want to determine. The optional return_type argument is 1 or 2, where 1 indicates</t>
+  </si>
+  <si>
+    <t>that the new week begins on Sunday and weekdays are numbered from 1 to</t>
+  </si>
+  <si>
+    <t>7, and 2 indicates that the new week begins on Monday and that weekdays are also</t>
+  </si>
+  <si>
+    <t>numbered from 1 to 7.</t>
+  </si>
+  <si>
+    <t>Note that even if the first week of the year contains just a single day, that week is</t>
+  </si>
+  <si>
+    <t>considered week 1 from the WEEKNUM function’s perspective. For example, if you</t>
+  </si>
+  <si>
+    <t>enter the following WEEKNUM function in a cell:</t>
+  </si>
+  <si>
+    <t>=WEEKNUM(DATE(2022, 1, 23))</t>
+  </si>
+  <si>
+    <t>Excel returns the number 5, indicating that the week containing the date</t>
+  </si>
+  <si>
+    <t>January 23, 2022, is the fifth week in the year when Sunday is considered as the</t>
+  </si>
+  <si>
+    <t>first day of the week. January 23, 2022 falls on a Sunday and, if you look at a calendar,</t>
+  </si>
+  <si>
+    <t>it appears to be only the fourth Sunday of the year. But look closer and you</t>
+  </si>
+  <si>
+    <t>see that January 1, 2022 falls on a Saturday, so the week that includes January 1,</t>
+  </si>
+  <si>
+    <t>2022 (which technically begins on Sunday, December 27, 2021) is considered to</t>
+  </si>
+  <si>
+    <t>be week 1.</t>
+  </si>
+  <si>
+    <t>Note that if I had added 2 as the optional return-type argument, Excel would return</t>
+  </si>
+  <si>
+    <t>4 as the result because January 23, 2022, is deemed to fall on the last day of the</t>
+  </si>
+  <si>
+    <t>fourth week of the year when Monday is considered the first day of the week.</t>
+  </si>
+  <si>
+    <t>WORKDAY</t>
+  </si>
+  <si>
+    <t>You can use the WORKDAY function to find out the date that is a specified number</t>
+  </si>
+  <si>
+    <t>of workdays before or after a starting date. This function takes the following</t>
+  </si>
+  <si>
+    <t>arguments:</t>
+  </si>
+  <si>
+    <t>WORKDAY(start_date, days, [holidays])</t>
+  </si>
+  <si>
+    <t>The start_date argument is the initial date that you want used in calculating the</t>
+  </si>
+  <si>
+    <t>date of the workday that falls so many days before or after it. The days argument</t>
+  </si>
+  <si>
+    <t>is the number of workdays ahead (positive integer) or behind (negative integer)</t>
+  </si>
+  <si>
+    <t>the start_date. The optional holidays argument is an array constant or cell range</t>
+  </si>
+  <si>
+    <t>that contains the dates of the holidays that should be excluded (when they fall on</t>
+  </si>
+  <si>
+    <t>a weekday) in calculating the new date.</t>
+  </si>
+  <si>
+    <t>For example, suppose that you want to determine a due date for a report that is 30</t>
+  </si>
+  <si>
+    <t>workdays after February 1, 2022, by using the same holiday schedule entered in</t>
+  </si>
+  <si>
+    <t>the cell range named Days_Off (B3:B13) in the Work Days 2022 workbook, shown</t>
+  </si>
+  <si>
+    <t>in Figure 3-2. To do this, you enter the following formula:</t>
+  </si>
+  <si>
+    <t>=WORKDAY(DATE(2022, 2, 1), 30, Days_Off)</t>
+  </si>
+  <si>
+    <t>Excel then returns the serial number 44636 to the cell, which then appears as</t>
+  </si>
+  <si>
+    <t>3/16/2022, when you format it with the Short Date format.</t>
+  </si>
+  <si>
+    <t>YEARFRAC</t>
+  </si>
+  <si>
+    <t>The YEARFRAC (for Year Fraction) function enables you to calculate the fraction of</t>
+  </si>
+  <si>
+    <t>the year, which is computed from the number of days between two dates. You can</t>
+  </si>
+  <si>
+    <t>use the YEARFRAC function to determine the proportion of a whole year’s benefits</t>
+  </si>
+  <si>
+    <t>or obligations to assign to a specific period.</t>
+  </si>
+  <si>
+    <t>The YEARFRAC function uses the following arguments:</t>
+  </si>
+  <si>
+    <t>YEARFRAC(start_date, end_date, [basis])</t>
+  </si>
+  <si>
+    <t>The optional basis argument in the YEARFRAC function is a number between 0 and</t>
+  </si>
+  <si>
+    <t>4 that determines the day count basis to use in determining the fractional part of</t>
+  </si>
+  <si>
+    <t>the year:</t>
+  </si>
+  <si>
+    <t>»»0 (or omitted) to base it on the U.S. (NASD) method of 30/360 (see “DAYS360”</t>
+  </si>
+  <si>
+    <t>earlier in the chapter for details on the U.S. method)</t>
+  </si>
+  <si>
+    <t>»»1 to base the fraction on actual days/actual days</t>
+  </si>
+  <si>
+    <t>»»2 to base the fraction on actual days/360</t>
+  </si>
+  <si>
+    <t>»»3 to base the fraction on actual days/365</t>
+  </si>
+  <si>
+    <t>»»4 to base the fraction on the European method of 30/360 (see “DAYS360”</t>
+  </si>
+  <si>
+    <t>earlier in the chapter for details on the European method)</t>
+  </si>
+  <si>
+    <t>For example, if you enter the following YEARFRAC formula in a cell to find what</t>
+  </si>
+  <si>
+    <t>percentage of the year remains as of October 15, 2022:</t>
+  </si>
+  <si>
+    <t>=YEARFRAC(DATE(2022, 10, 15),DATE(2022, 12, 31))</t>
+  </si>
+  <si>
+    <t>Excel returns the decimal value 0.2111111 to the cell, indicating that just over</t>
+  </si>
+  <si>
+    <t>21 percent of the year remains.</t>
+  </si>
+  <si>
+    <t>NOW</t>
+  </si>
+  <si>
+    <t>The NOW function returns the current date and time based on your computer’s</t>
+  </si>
+  <si>
+    <t>internal clock. You can use the NOW function to date- and time-stamp the</t>
+  </si>
+  <si>
+    <t>worksheet. Like the TODAY function, NOW takes no arguments and is automatically</t>
+  </si>
+  <si>
+    <t>recalculated every time you open the worksheet:</t>
+  </si>
+  <si>
+    <t>=NOW()</t>
+  </si>
+  <si>
+    <t>When you enter the NOW function in a cell, Excel puts the date before the current</t>
+  </si>
+  <si>
+    <t>time. It also formats the date with the Short Date format and the time with the</t>
+  </si>
+  <si>
+    <t>24-hour Time format. So, if the current date were August 19, 2022 and the current</t>
+  </si>
+  <si>
+    <t>time was 12:57 p.m. at the moment when Excel calculates the NOW function, your</t>
+  </si>
+  <si>
+    <t>cell would contain the following entry:</t>
+  </si>
+  <si>
+    <t>8/19/2022 12:57</t>
+  </si>
+  <si>
+    <t>Note that the combination Date/Time format that the NOW function uses is a custom</t>
+  </si>
+  <si>
+    <t>number format. If you want to assign a different date/time to the date and</t>
+  </si>
+  <si>
+    <t>time serial numbers returned by this function, you have to create your own custom</t>
+  </si>
+  <si>
+    <t>number format and then assign it to the cell that contains the NOW function.</t>
+  </si>
+  <si>
+    <t>(See Book 2, Chapter 2 for information on creating custom number formats.)</t>
+  </si>
+  <si>
+    <t>TIME and TIMEVALUE</t>
+  </si>
+  <si>
+    <t>TIME</t>
+  </si>
+  <si>
+    <t>Given values representing the hour, minute, and second, the TIME function returns</t>
+  </si>
+  <si>
+    <t>a decimal number representing the time serial number, ranging from 0 (zero) to</t>
+  </si>
+  <si>
+    <t>0.99999999, representing time 0:00:00 (12:00:00 AM) to 23:59:59 (11:59:59 PM).</t>
+  </si>
+  <si>
+    <t>You can use the TIME function to combine the hours, minutes, and seconds of a</t>
+  </si>
+  <si>
+    <t>time into a single time serial number when these parts are stored in separate cells.</t>
+  </si>
+  <si>
+    <t>The TIME function takes the following arguments:</t>
+  </si>
+  <si>
+    <t>TIME(hour, minute, second)</t>
+  </si>
+  <si>
+    <t>When specifying the hour argument, you use a number between 0 and 23. (Any</t>
+  </si>
+  <si>
+    <t>number greater than 23 is divided by 24, and the remainder is used as the hour</t>
+  </si>
+  <si>
+    <t>value.) When specifying the minute and second arguments, you use a number</t>
+  </si>
+  <si>
+    <t>between 0 and 59. (Any minute argument greater than 59 is converted into hours</t>
+  </si>
+  <si>
+    <t>and minutes, just as any second argument greater than 59 is converted into hours,</t>
+  </si>
+  <si>
+    <t>minutes, and seconds.)</t>
+  </si>
+  <si>
+    <t>TIMEVALUE</t>
+  </si>
+  <si>
+    <t>The TIMEVALUE function converts a time entered or imported into the worksheet</t>
+  </si>
+  <si>
+    <t>as a text entry into its equivalent time serial number so that you can use it</t>
+  </si>
+  <si>
+    <t>in time calculations. The TIMEVALUE function uses a single time_text argument</t>
+  </si>
+  <si>
+    <t>as follows:</t>
+  </si>
+  <si>
+    <t>TIMEVALUE(time_text)</t>
+  </si>
+  <si>
+    <t>HOUR, MINUTE, and SECOND</t>
+  </si>
+  <si>
+    <t>Time value</t>
+  </si>
+  <si>
+    <t>HOUR</t>
+  </si>
+  <si>
+    <t>MINUTE</t>
+  </si>
+  <si>
+    <t>SECOND</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
-    <numFmt numFmtId="167" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="166" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="169" formatCode="[$-409]h:mm:ss\ AM/PM;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -417,8 +744,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -428,6 +770,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,13 +816,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -490,19 +839,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="3"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -510,11 +855,26 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Heading 2" xfId="2" builtinId="17"/>
     <cellStyle name="Heading 3" xfId="3" builtinId="18"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -829,15 +1189,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB72616B-18AC-4499-A5EB-527A3B6C4E41}">
-  <dimension ref="A3:H143"/>
+  <dimension ref="A3:H231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E134" sqref="E134"/>
+    <sheetView topLeftCell="A117" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A131" sqref="A131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.85546875" bestFit="1" customWidth="1"/>
@@ -845,14 +1205,14 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -885,14 +1245,14 @@
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -920,11 +1280,11 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
@@ -962,7 +1322,7 @@
     </row>
     <row r="21" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="15" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1108,7 +1468,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="15" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1122,11 +1482,11 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
     </row>
     <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
@@ -1218,7 +1578,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="16" t="s">
+      <c r="A53" s="15" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1263,12 +1623,12 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="15" t="s">
+      <c r="A64" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B64" s="15"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
     </row>
     <row r="65" spans="1:1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
@@ -1292,7 +1652,7 @@
       </c>
     </row>
     <row r="71" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="16" t="s">
+      <c r="A71" s="15" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1327,11 +1687,11 @@
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="11" t="s">
+      <c r="A81" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B81" s="11"/>
-      <c r="C81" s="11"/>
+      <c r="B81" s="22"/>
+      <c r="C81" s="22"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
@@ -1357,35 +1717,35 @@
       <c r="A88" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B88" s="12" t="s">
+      <c r="B88" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C88" s="12" t="s">
+      <c r="C88" s="11" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="13">
+      <c r="A89" s="12">
         <f>DATE(2022,1,15)</f>
         <v>44576</v>
       </c>
       <c r="B89">
         <v>1</v>
       </c>
-      <c r="C89" s="13">
+      <c r="C89" s="12">
         <f>EDATE(A89,B89)</f>
         <v>44607</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="13">
+      <c r="A90" s="12">
         <f>DATE(2022,3,31)</f>
         <v>44651</v>
       </c>
       <c r="B90">
         <v>1</v>
       </c>
-      <c r="C90" s="13">
+      <c r="C90" s="12">
         <f>EDATE(A90,B90)</f>
         <v>44681</v>
       </c>
@@ -1401,11 +1761,11 @@
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="14" t="s">
+      <c r="A95" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="B95" s="11"/>
-      <c r="C95" s="11"/>
+      <c r="B95" s="22"/>
+      <c r="C95" s="22"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
@@ -1423,7 +1783,7 @@
       </c>
     </row>
     <row r="101" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="16" t="s">
+      <c r="A101" s="15" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1451,10 +1811,10 @@
       <c r="A108" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B108" s="12" t="s">
+      <c r="B108" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C108" s="12" t="s">
+      <c r="C108" s="11" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1477,11 +1837,11 @@
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="14" t="s">
+      <c r="A113" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="B113" s="11"/>
-      <c r="C113" s="11"/>
+      <c r="B113" s="22"/>
+      <c r="C113" s="22"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
@@ -1494,10 +1854,9 @@
       </c>
     </row>
     <row r="118" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="16" t="s">
+      <c r="A118" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B118" s="16"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
@@ -1510,13 +1869,13 @@
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="14" t="s">
+      <c r="A123" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="B123" s="14"/>
-      <c r="C123" s="14"/>
-      <c r="D123" s="14"/>
-      <c r="E123" s="14"/>
+      <c r="B123" s="21"/>
+      <c r="C123" s="21"/>
+      <c r="D123" s="21"/>
+      <c r="E123" s="21"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
@@ -1538,165 +1897,396 @@
         <v>75</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="B132" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C132" s="19" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="B133" s="22">
-        <v>44562</v>
-      </c>
-      <c r="C133" t="str" cm="1">
-        <f t="array" ref="C133:C143">_xlfn.SWITCH(WEEKDAY(Days_Off), 1, "Sunday", 2, "Monday", 3,"Tuesday",4,"Wednesday",5,"Thursday",6,"Friday",7,"Saturday")</f>
-        <v>Saturday</v>
-      </c>
-      <c r="D133" t="s">
-        <v>91</v>
-      </c>
-      <c r="E133">
-        <f>NETWORKDAYS(DATE(2021,12,31),DATE(2022,12,31))</f>
-        <v>261</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="B134" s="22">
-        <v>44578</v>
-      </c>
-      <c r="C134" t="str">
-        <v>Monday</v>
-      </c>
-      <c r="D134" t="s">
-        <v>92</v>
-      </c>
-      <c r="E134">
-        <f>NETWORKDAYS(DATE(2021,12,31),DATE(2022,12,31), Days_Off)</f>
-        <v>253</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="B135" s="22">
-        <v>44613</v>
-      </c>
-      <c r="C135" t="str">
-        <v>Monday</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B136" s="22">
-        <v>44711</v>
-      </c>
-      <c r="C136" t="str">
-        <v>Monday</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="B137" s="22">
-        <v>44746</v>
-      </c>
-      <c r="C137" t="str">
-        <v>Monday</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="B138" s="22">
-        <v>44809</v>
-      </c>
-      <c r="C138" t="str">
-        <v>Monday</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B131" s="25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B139" s="22">
-        <v>44876</v>
-      </c>
-      <c r="C139" t="str">
-        <v>Friday</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="B140" s="22">
-        <v>44889</v>
-      </c>
-      <c r="C140" t="str">
-        <v>Thursday</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="B141" s="22">
-        <v>44890</v>
-      </c>
-      <c r="C141" t="str">
-        <v>Friday</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="B142" s="22">
-        <v>44919</v>
-      </c>
-      <c r="C142" t="str">
-        <v>Saturday</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="B143" s="22">
-        <v>44920</v>
-      </c>
-      <c r="C143" t="str">
-        <v>Sunday</v>
+        <v>98</v>
+      </c>
+      <c r="B139" s="21"/>
+      <c r="C139" s="21"/>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <f>WEEKNUM(DATE(2022,1,23))</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <f>WEEKNUM(DATE(2022,1,23),2)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="B155" s="21"/>
+      <c r="C155" s="21"/>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="B176" s="21"/>
+      <c r="C176" s="21"/>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <f>WORKDAY(DATE(2022,2,1),30,Days_Off)</f>
+        <v>44636</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="B193" s="21"/>
+      <c r="C193" s="21"/>
+      <c r="D193" s="13"/>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B208" s="21"/>
+      <c r="C208" s="21"/>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" s="24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <f>YEARFRAC(DATE(2022,10,15),DATE(2022,12,31))</f>
+        <v>0.21111111111111111</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="B228" s="26"/>
+      <c r="C228" s="26"/>
+      <c r="D228" s="26"/>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="11">
+    <mergeCell ref="A208:C208"/>
+    <mergeCell ref="A228:D228"/>
+    <mergeCell ref="A139:C139"/>
+    <mergeCell ref="A155:C155"/>
+    <mergeCell ref="A176:C176"/>
+    <mergeCell ref="A193:C193"/>
     <mergeCell ref="A113:C113"/>
     <mergeCell ref="A123:E123"/>
     <mergeCell ref="A81:C81"/>
@@ -1704,7 +2294,559 @@
     <mergeCell ref="A3:F3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B131" location="Example!A1" display="Click here" xr:uid="{B7AB5180-1EE0-43C9-8703-5243B69B4EB4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54640DE7-4DF6-44E7-874D-7A02676789BB}">
+  <dimension ref="A2:E81"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F80" sqref="F80"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="27">
+        <f ca="1">NOW()</f>
+        <v>45238.761119560186</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B29" s="10"/>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="B41" s="21"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>4</v>
+      </c>
+      <c r="C51">
+        <v>37</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51" s="3">
+        <f>TIME(B51,C51,D51)</f>
+        <v>0.19236111111111112</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>14</v>
+      </c>
+      <c r="C52">
+        <v>37</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <f t="shared" ref="E52:E56" si="0">TIME(B52,C52,D52)</f>
+        <v>0.60902777777777783</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>4</v>
+      </c>
+      <c r="C53">
+        <v>70</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53" s="3">
+        <f t="shared" si="0"/>
+        <v>0.21527777777777779</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>4</v>
+      </c>
+      <c r="C54">
+        <v>37</v>
+      </c>
+      <c r="D54">
+        <v>70</v>
+      </c>
+      <c r="E54" s="3">
+        <f t="shared" si="0"/>
+        <v>0.19317129629629629</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="B64" s="21"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="B71" s="21"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <f>TIMEVALUE("10:35:25")</f>
+        <v>0.44126157407407413</v>
+      </c>
+      <c r="C75" s="29">
+        <f>TIMEVALUE("10:35:25")</f>
+        <v>0.44126157407407413</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B77" s="10"/>
+      <c r="C77" s="10"/>
+    </row>
+    <row r="78" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B79" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B80" s="30">
+        <v>0.56261574074074072</v>
+      </c>
+      <c r="C80">
+        <f>HOUR(B80)</f>
+        <v>13</v>
+      </c>
+      <c r="D80">
+        <f>MINUTE(B80)</f>
+        <v>30</v>
+      </c>
+      <c r="E80">
+        <f>SECOND(B80)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A71:B71"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0E1355E-96AC-4B93-AB86-BF94BE3B0E4A}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="20">
+        <v>44562</v>
+      </c>
+      <c r="C3" t="str" cm="1">
+        <f t="array" ref="C3:C13">_xlfn.SWITCH(WEEKDAY(Days_Off), 1, "Sunday", 2, "Monday", 3,"Tuesday",4,"Wednesday",5,"Thursday",6,"Friday",7,"Saturday")</f>
+        <v>Saturday</v>
+      </c>
+      <c r="D3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3">
+        <f>NETWORKDAYS(DATE(2021,12,31),DATE(2022,12,31))</f>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="20">
+        <v>44578</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Monday</v>
+      </c>
+      <c r="D4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4">
+        <f>NETWORKDAYS(DATE(2021,12,31),DATE(2022,12,31), Days_Off)</f>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="20">
+        <v>44613</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Monday</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="20">
+        <v>44711</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Monday</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="20">
+        <v>44746</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Monday</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="20">
+        <v>44809</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Monday</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="20">
+        <v>44876</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Friday</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="20">
+        <v>44889</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Thursday</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="20">
+        <v>44890</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Friday</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" s="20">
+        <v>44919</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Saturday</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" s="20">
+        <v>44920</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Sunday</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>